--- a/vtiger-crm-fw-project/src/test/resources/testscriptdata.xlsx
+++ b/vtiger-crm-fw-project/src/test/resources/testscriptdata.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="6180" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="org" sheetId="1" r:id="rId1"/>
+    <sheet name="setData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Viraj</t>
   </si>
@@ -32,12 +33,16 @@
   </si>
   <si>
     <t>Gurgram</t>
+  </si>
+  <si>
+    <t>Google</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,34 +380,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4">
+      <c r="B4" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
